--- a/최종산출물/03정보구조설계/하나금융지주 레이블링 구성도.xlsx
+++ b/최종산출물/03정보구조설계/하나금융지주 레이블링 구성도.xlsx
@@ -306,34 +306,34 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
-      <name val="나눔바른고딕OTF Light"/>
+      <name val="나눔고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="나눔바른고딕OTF Light"/>
+      <name val="나눔고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="나눔바른고딕OTF Light"/>
+      <name val="나눔고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="나눔바른고딕OTF Light"/>
+      <name val="나눔고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="나눔바른고딕OTF Light"/>
+      <name val="나눔고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -495,27 +495,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -525,14 +531,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -542,7 +552,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -552,11 +564,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -566,26 +582,40 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -809,514 +839,514 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="11" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="13"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="11" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="20"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="11" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="11" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="13"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="11" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="13"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="11" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="11" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="11" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="4"/>
+      <c r="H13" s="15"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="11" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
+      <c r="H14" s="15"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="11" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
+      <c r="H15" s="15"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="11" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="13"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="20"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="11" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="11" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="11" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="20"/>
+      <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="11" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="H22" s="13"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="11" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H23" s="13"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25" t="s">
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="H24" s="26"/>
+      <c r="H24" s="28"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="28"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="33"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34" t="s">
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="36"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="31"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
       <c r="E28" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
       <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="34" t="s">
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="36"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="31"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
       <c r="E30" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
       <c r="H30" s="38"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
@@ -1326,63 +1356,58 @@
       <c r="B31" s="40"/>
       <c r="C31" s="40"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="41" t="s">
+      <c r="E31" s="40" t="s">
         <v>46</v>
       </c>
       <c r="F31" s="40"/>
       <c r="G31" s="40"/>
-      <c r="H31" s="42"/>
+      <c r="H31" s="41"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A32" s="43"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="34" t="s">
+      <c r="A32" s="42"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="44"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
       <c r="E33" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
       <c r="H33" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:C20"/>
-    <mergeCell ref="B21:C23"/>
     <mergeCell ref="Q13:R15"/>
-    <mergeCell ref="G3:H3"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="B9:C16"/>
     <mergeCell ref="B3:C5"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:C8"/>
-    <mergeCell ref="D6:D8"/>
     <mergeCell ref="B25:H25"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="G21:H21"/>
@@ -1393,6 +1418,10 @@
     <mergeCell ref="A9:A16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="D17:D20"/>
+    <mergeCell ref="D9:D16"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G18:H18"/>
@@ -1400,14 +1429,16 @@
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D9:D16"/>
     <mergeCell ref="D21:D23"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B17:C20"/>
+    <mergeCell ref="B21:C23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/최종산출물/03정보구조설계/하나금융지주 레이블링 구성도.xlsx
+++ b/최종산출물/03정보구조설계/하나금융지주 레이블링 구성도.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17385" windowHeight="12225"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17385" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -201,70 +201,71 @@
     <t>register</t>
   </si>
   <si>
+    <t>회원가입 페이지</t>
+  </si>
+  <si>
+    <t>register_update.php</t>
+  </si>
+  <si>
+    <t>회원정보 수정 페이지</t>
+  </si>
+  <si>
+    <t>join.css</t>
+  </si>
+  <si>
+    <t>회원가입 페이지 서식</t>
+  </si>
+  <si>
+    <t>데이터베이스</t>
+  </si>
+  <si>
+    <t>db_conn.php</t>
+  </si>
+  <si>
+    <t>데이터베이스 연결 페이지</t>
+  </si>
+  <si>
+    <t>모바일</t>
+  </si>
+  <si>
+    <t>각 파일명 앞 m_추가</t>
+  </si>
+  <si>
+    <t>추가 서식</t>
+  </si>
+  <si>
+    <t>기본서식</t>
+  </si>
+  <si>
+    <t>css_reset.css</t>
+  </si>
+  <si>
+    <t>base.css</t>
+  </si>
+  <si>
+    <t>공통서식</t>
+  </si>
+  <si>
+    <t>common.css</t>
+  </si>
+  <si>
+    <t>commom.js</t>
+  </si>
+  <si>
+    <t>크로스브라우징</t>
+  </si>
+  <si>
+    <t>notice.js</t>
+  </si>
+  <si>
+    <t>prefixfree.min.js</t>
+  </si>
+  <si>
+    <t>메인화면</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>register.php</t>
-  </si>
-  <si>
-    <t>회원가입 페이지</t>
-  </si>
-  <si>
-    <t>register_update.php</t>
-  </si>
-  <si>
-    <t>회원정보 수정 페이지</t>
-  </si>
-  <si>
-    <t>join.css</t>
-  </si>
-  <si>
-    <t>회원가입 페이지 서식</t>
-  </si>
-  <si>
-    <t>데이터베이스</t>
-  </si>
-  <si>
-    <t>db_conn.php</t>
-  </si>
-  <si>
-    <t>데이터베이스 연결 페이지</t>
-  </si>
-  <si>
-    <t>모바일</t>
-  </si>
-  <si>
-    <t>각 파일명 앞 m_추가</t>
-  </si>
-  <si>
-    <t>추가 서식</t>
-  </si>
-  <si>
-    <t>기본서식</t>
-  </si>
-  <si>
-    <t>css_reset.css</t>
-  </si>
-  <si>
-    <t>base.css</t>
-  </si>
-  <si>
-    <t>공통서식</t>
-  </si>
-  <si>
-    <t>common.css</t>
-  </si>
-  <si>
-    <t>commom.js</t>
-  </si>
-  <si>
-    <t>크로스브라우징</t>
-  </si>
-  <si>
-    <t>notice.js</t>
-  </si>
-  <si>
-    <t>prefixfree.min.js</t>
-  </si>
-  <si>
-    <t>메인화면</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -498,11 +499,53 @@
   <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -510,73 +553,43 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -588,34 +601,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -838,8 +839,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -851,544 +852,575 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A3" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="A3" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="15"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="13" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="13" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="15"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="22"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="13" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="15"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="13" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="15"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19" t="s">
+      <c r="C9" s="26"/>
+      <c r="D9" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="22"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="13" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="15"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="13" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="13" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="15"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="13" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="3"/>
+      <c r="H13" s="18"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="15"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="13" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
+      <c r="H14" s="18"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="13" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
+      <c r="H15" s="18"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="13" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="15"/>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="22"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="13" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="15"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="13" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="15"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="13" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="15"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19" t="s">
+      <c r="B21" s="43"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="H21" s="30"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A22" s="18"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="22"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="13" t="s">
+      <c r="G22" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A23" s="18"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="41"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27" t="s">
+      <c r="G24" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="25" t="s">
+      <c r="H24" s="34"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A25" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H24" s="28"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="29" t="s">
+      <c r="B25" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="34"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A26" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="28"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="31" t="s">
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="37"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A27" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="33"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="34" t="s">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35" t="s">
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A28" s="37"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="36"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="33"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37" t="s">
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A29" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="38"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="34" t="s">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35" t="s">
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A30" s="37"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="36"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="33"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37" t="s">
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A31" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A31" s="39" t="s">
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A32" s="39"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="41"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A32" s="42"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35" t="s">
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A33" s="40"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="36"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="43"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="38"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B17:C20"/>
+    <mergeCell ref="B21:C23"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:C8"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="D9:D16"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="Q13:R15"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A1:H1"/>
@@ -1405,37 +1437,6 @@
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:C8"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="D9:D16"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B17:C20"/>
-    <mergeCell ref="B21:C23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/최종산출물/03정보구조설계/하나금융지주 레이블링 구성도.xlsx
+++ b/최종산출물/03정보구조설계/하나금융지주 레이블링 구성도.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17385" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17385" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -120,40 +120,22 @@
     <t>하나뉴스 데이터베이스</t>
   </si>
   <si>
-    <t>notice_list.php</t>
-  </si>
-  <si>
     <t>php</t>
   </si>
   <si>
     <t>하나뉴스 메인 페이지</t>
   </si>
   <si>
-    <t>notice_write.php</t>
-  </si>
-  <si>
     <t>하나뉴스 글쓰기 페이지</t>
   </si>
   <si>
-    <t>notice_write2.php</t>
-  </si>
-  <si>
     <t>수정 페이지 함수</t>
   </si>
   <si>
-    <t>notice_view.php</t>
-  </si>
-  <si>
     <t>글 클릭시 창</t>
   </si>
   <si>
-    <t>notice_confirm.php</t>
-  </si>
-  <si>
     <t>글 삭제 창</t>
-  </si>
-  <si>
-    <t>notice_del.php</t>
   </si>
   <si>
     <t>글 삭제 창 함수</t>
@@ -266,6 +248,30 @@
   </si>
   <si>
     <t>register.php</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>noticedel.php</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>noticeconfirm.php</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>noticeview.php</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>noticewrite2.php</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>noticewrite.php</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>noticelist.php</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -535,6 +541,69 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -543,9 +612,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -554,69 +620,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -839,8 +845,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -852,25 +858,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
@@ -880,18 +886,18 @@
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="20"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A3" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="23" t="s">
+      <c r="A3" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="42" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -900,52 +906,52 @@
       <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="18"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A4" s="18"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="18"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="22" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -954,55 +960,55 @@
       <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="30"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="18"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="28" t="s">
+      <c r="C9" s="28"/>
+      <c r="D9" s="22" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -1011,378 +1017,378 @@
       <c r="F9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="30"/>
+      <c r="H9" s="34"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A11" s="15"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="3" t="s">
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A12" s="15"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="22" t="s">
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A13" s="15"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="3" t="s">
+      <c r="H13" s="15"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="36"/>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A14" s="15"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="22" t="s">
+      <c r="H14" s="15"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A15" s="15"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="3" t="s">
+      <c r="H15" s="15"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A16" s="15"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="18"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="18"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A17" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="34"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A18" s="15"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="31" t="s">
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A19" s="15"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="28" t="s">
+      <c r="F19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A20" s="15"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="30"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A21" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="34"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A22" s="15"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A23" s="15"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="30"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="18"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="H23" s="18"/>
+      <c r="G23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="33"/>
+        <v>59</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" s="34"/>
+        <v>33</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="34"/>
+        <v>62</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="20"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="37"/>
+      <c r="A26" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="25"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="42" t="s">
-        <v>71</v>
+      <c r="A27" s="24" t="s">
+        <v>65</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="37"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="42" t="s">
-        <v>74</v>
+      <c r="A29" s="24" t="s">
+        <v>68</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="37"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A31" s="38" t="s">
-        <v>77</v>
+      <c r="A31" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A32" s="39"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="40"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -1390,6 +1396,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="Q13:R15"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="B9:C16"/>
+    <mergeCell ref="B3:C5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:C8"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="D9:D16"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="G19:H19"/>
@@ -1406,37 +1443,6 @@
     <mergeCell ref="B17:C20"/>
     <mergeCell ref="B21:C23"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:C8"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="D9:D16"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="Q13:R15"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="B9:C16"/>
-    <mergeCell ref="B3:C5"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G15:H15"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/최종산출물/03정보구조설계/하나금융지주 레이블링 구성도.xlsx
+++ b/최종산출물/03정보구조설계/하나금융지주 레이블링 구성도.xlsx
@@ -313,35 +313,35 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
-      <name val="나눔고딕"/>
-      <family val="3"/>
+      <name val="나눔바른고딕OTF"/>
+      <family val="1"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="나눔고딕"/>
-      <family val="3"/>
+      <name val="나눔바른고딕OTF"/>
+      <family val="1"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="나눔고딕"/>
-      <family val="3"/>
+      <name val="나눔바른고딕OTF"/>
+      <family val="1"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="나눔고딕"/>
-      <family val="3"/>
+      <name val="나눔바른고딕OTF"/>
+      <family val="1"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="나눔고딕"/>
-      <family val="3"/>
+      <name val="나눔바른고딕OTF"/>
+      <family val="1"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -505,13 +505,64 @@
   <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -520,9 +571,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -533,96 +608,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -845,8 +845,8 @@
   </sheetPr>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H33" sqref="A1:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -858,52 +858,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="40"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="42" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="14" t="s">
@@ -913,13 +913,13 @@
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1">
       <c r="A4" s="15"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="3" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="14" t="s">
@@ -929,13 +929,13 @@
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1">
       <c r="A5" s="15"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="3" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="14" t="s">
@@ -944,36 +944,36 @@
       <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="22" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="34"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1">
       <c r="A7" s="15"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="3" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="14" t="s">
@@ -983,13 +983,13 @@
     </row>
     <row r="8" spans="1:18" ht="15.75" customHeight="1">
       <c r="A8" s="15"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="14" t="s">
@@ -1001,36 +1001,36 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="22" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="34"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1">
       <c r="A10" s="15"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="3" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="14" t="s">
@@ -1040,13 +1040,13 @@
     </row>
     <row r="11" spans="1:18" ht="15.75" customHeight="1">
       <c r="A11" s="15"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="3" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G11" s="14" t="s">
@@ -1056,13 +1056,13 @@
     </row>
     <row r="12" spans="1:18" ht="15.75" customHeight="1">
       <c r="A12" s="15"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="3" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G12" s="14" t="s">
@@ -1072,67 +1072,67 @@
     </row>
     <row r="13" spans="1:18" ht="15.75" customHeight="1">
       <c r="A13" s="15"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="3" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>37</v>
       </c>
       <c r="H13" s="15"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="36"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" customHeight="1">
       <c r="A14" s="15"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="3" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>38</v>
       </c>
       <c r="H14" s="15"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" customHeight="1">
       <c r="A15" s="15"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="3" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>39</v>
       </c>
       <c r="H15" s="15"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" customHeight="1">
       <c r="A16" s="15"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="3" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="14" t="s">
@@ -1141,34 +1141,34 @@
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="22" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="34"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="A18" s="15"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="3" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G18" s="14" t="s">
@@ -1178,13 +1178,13 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="A19" s="15"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="3" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G19" s="14" t="s">
@@ -1194,13 +1194,13 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="A20" s="15"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="3" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="14" t="s">
@@ -1209,34 +1209,34 @@
       <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="22" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="34"/>
+      <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="15"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="3" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G22" s="14" t="s">
@@ -1246,13 +1246,13 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="A23" s="15"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="3" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="14" t="s">
@@ -1261,36 +1261,36 @@
       <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6" t="s">
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="20"/>
+      <c r="H24" s="28"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="29" t="s">
         <v>62</v>
       </c>
       <c r="B25" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="20"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="28"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="A26" s="31" t="s">
@@ -1302,100 +1302,131 @@
       <c r="E26" s="32"/>
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
-      <c r="H26" s="25"/>
+      <c r="H26" s="33"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8" t="s">
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="36"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="25"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10" t="s">
+      <c r="A28" s="33"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="38"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8" t="s">
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="36"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10" t="s">
+      <c r="A30" s="33"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="11"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="38"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12" t="s">
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="13"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="41"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A32" s="17"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8" t="s">
+      <c r="A32" s="42"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="18"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10" t="s">
+      <c r="A33" s="43"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="11"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B17:C20"/>
+    <mergeCell ref="B21:C23"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:C8"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="D9:D16"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="Q13:R15"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A1:H1"/>
@@ -1412,37 +1443,6 @@
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:C8"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="D9:D16"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B17:C20"/>
-    <mergeCell ref="B21:C23"/>
-    <mergeCell ref="G16:H16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
